--- a/UseCaseIScenarij/Scenarij/FluffyScenarij1.xlsx
+++ b/UseCaseIScenarij/Scenarij/FluffyScenarij1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Scenarij 1.</t>
   </si>
@@ -114,13 +114,31 @@
   </si>
   <si>
     <t>15. Slanje potvrde korisniku na e-mail</t>
+  </si>
+  <si>
+    <t>Alternativni tok 1:</t>
+  </si>
+  <si>
+    <t>Nema nijedan dostupan termin.</t>
+  </si>
+  <si>
+    <t>Preduvjet:</t>
+  </si>
+  <si>
+    <t>Svi termini putovanja za odabranu destinaciju su popunjeni.</t>
+  </si>
+  <si>
+    <t>1. Obavještenje korisniku da nema dostupnih termina.</t>
+  </si>
+  <si>
+    <t>2. Molba da odabere drugu destinaciju.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +179,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -333,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,18 +409,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,35 +469,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -776,102 +814,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="9" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
@@ -881,10 +919,10 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
@@ -896,10 +934,10 @@
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="3"/>
       <c r="G12" s="7"/>
       <c r="H12" s="2"/>
@@ -907,10 +945,10 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
@@ -920,10 +958,10 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
       <c r="F14" s="3"/>
@@ -935,10 +973,10 @@
     <row r="15" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="2"/>
@@ -948,10 +986,10 @@
     <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
       <c r="H16" s="2"/>
@@ -959,10 +997,10 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
@@ -974,10 +1012,10 @@
     <row r="18" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="3"/>
       <c r="G18" s="7"/>
       <c r="H18" s="2"/>
@@ -985,12 +1023,12 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="19" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="2"/>
@@ -1000,10 +1038,10 @@
     <row r="20" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="2"/>
@@ -1011,10 +1049,10 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
@@ -1024,10 +1062,10 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
       <c r="F22" s="3"/>
@@ -1039,10 +1077,10 @@
     <row r="23" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="2"/>
@@ -1054,10 +1092,10 @@
       <c r="C24" s="16"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1067,10 +1105,10 @@
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1087,23 +1125,31 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1119,35 +1165,45 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="31"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="2:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2891,23 +2947,20 @@
       <c r="J190" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D7:H7"/>
+  <mergeCells count="45">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F9:G9"/>
@@ -2924,6 +2977,22 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
